--- a/DataFiles/People_study/loocv_num_people.xlsx
+++ b/DataFiles/People_study/loocv_num_people.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\DataFiles\People_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/DataFiles/People_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,17 +77,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -87,7 +95,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -96,20 +104,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -117,18 +125,18 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -137,14 +145,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,7 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +239,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="30"/>
+            <c:forward val="30.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -242,43 +250,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,40 +298,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.62009000000000003</c:v>
+                  <c:v>0.62009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60645140000000008</c:v>
+                  <c:v>0.6064514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63859659999999996</c:v>
+                  <c:v>0.6385966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60769259999999992</c:v>
+                  <c:v>0.6076926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57446799999999998</c:v>
+                  <c:v>0.574468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59523820000000005</c:v>
+                  <c:v>0.5952382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60000039999999988</c:v>
+                  <c:v>0.6000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55625000000000002</c:v>
+                  <c:v>0.55625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53333359999999996</c:v>
+                  <c:v>0.5333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54545440000000001</c:v>
+                  <c:v>0.5454544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36470600000000003</c:v>
+                  <c:v>0.364706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51666679999999998</c:v>
+                  <c:v>0.5166668</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.3714286</c:v>
@@ -341,14 +349,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173604560"/>
-        <c:axId val="173606800"/>
+        <c:axId val="2143019136"/>
+        <c:axId val="2143024064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173604560"/>
+        <c:axId val="2143019136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -385,15 +393,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173606800"/>
+        <c:crossAx val="2143024064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173606800"/>
+        <c:axId val="2143024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.7"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -431,7 +440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173604560"/>
+        <c:crossAx val="2143019136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -478,40 +487,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,40 +532,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.78043392300000325</c:v>
+                  <c:v>0.780433923000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4623354880000115</c:v>
+                  <c:v>2.462335488000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1094940829999977</c:v>
+                  <c:v>1.109494082999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.634898144999994</c:v>
+                  <c:v>22.634898145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.172307257000025</c:v>
+                  <c:v>14.17230725700002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1132111030000003</c:v>
+                  <c:v>5.113211103</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.8984375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.550264748000007</c:v>
+                  <c:v>31.55026474800001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134.29816115800031</c:v>
+                  <c:v>134.2981611580003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266.43607266499976</c:v>
+                  <c:v>266.4360726649998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>326.38911111200059</c:v>
+                  <c:v>326.3891111120006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>469.38881632799985</c:v>
+                  <c:v>469.3888163279998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,11 +580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249441728"/>
-        <c:axId val="249437248"/>
+        <c:axId val="2143055008"/>
+        <c:axId val="2143057760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249441728"/>
+        <c:axId val="2143055008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,12 +594,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249437248"/>
+        <c:crossAx val="2143057760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249437248"/>
+        <c:axId val="2143057760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249441728"/>
+        <c:crossAx val="2143055008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -736,9 +745,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -771,9 +780,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -979,26 +988,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>67</v>
       </c>
@@ -1030,12 +1039,12 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="15">
+      <c r="G3" s="10">
         <v>0.62009000000000003</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>62</v>
       </c>
@@ -1054,7 +1063,7 @@
       <c r="F4" s="3">
         <v>59.677399999999999</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="10">
         <f>AVERAGE(B4:F4)/100</f>
         <v>0.60645140000000008</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>0.78043392300000325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>57</v>
       </c>
@@ -1082,7 +1091,7 @@
       <c r="F5" s="3">
         <v>63.157899999999998</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G15" si="0">AVERAGE(B5:F5)/100</f>
         <v>0.63859659999999996</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>2.4623354880000115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>52</v>
       </c>
@@ -1110,7 +1119,7 @@
       <c r="F6" s="3">
         <v>59.615400000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>0.60769259999999992</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>1.1094940829999977</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>47</v>
       </c>
@@ -1138,7 +1147,7 @@
       <c r="F7" s="3">
         <v>63.829799999999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>0.57446799999999998</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>22.634898144999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42</v>
       </c>
@@ -1166,7 +1175,7 @@
       <c r="F8" s="3">
         <v>54.761899999999997</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>0.59523820000000005</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>14.172307257000025</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>37</v>
       </c>
@@ -1194,7 +1203,7 @@
       <c r="F9" s="3">
         <v>62.162199999999999</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>0.60000039999999988</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>5.1132111030000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -1222,7 +1231,7 @@
       <c r="F10" s="3">
         <v>56.25</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>0.55625000000000002</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>45.8984375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>27</v>
       </c>
@@ -1250,7 +1259,7 @@
       <c r="F11" s="3">
         <v>51.851900000000001</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>0.53333359999999996</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>31.550264748000007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>22</v>
       </c>
@@ -1278,7 +1287,7 @@
       <c r="F12" s="3">
         <v>50</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>0.54545440000000001</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>134.29816115800031</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -1306,7 +1315,7 @@
       <c r="F13" s="3">
         <v>52.941200000000002</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>0.36470600000000003</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>266.43607266499976</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1334,7 +1343,7 @@
       <c r="F14" s="3">
         <v>33.333300000000001</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>0.51666679999999998</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>326.38911111200059</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -1362,7 +1371,7 @@
       <c r="F15" s="3">
         <v>57.142899999999997</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>0.3714286</v>
       </c>
@@ -1386,9 +1395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1400,7 +1409,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/People_study/loocv_num_people.xlsx
+++ b/DataFiles/People_study/loocv_num_people.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/DataFiles/People_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\DataFiles\People_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -229,17 +226,48 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:trendline>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="lgDash"/>
               </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:forward val="30.0"/>
+            <c:forward val="30"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -250,43 +278,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,40 +326,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.62009</c:v>
+                  <c:v>0.62009000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6064514</c:v>
+                  <c:v>0.60645140000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6385966</c:v>
+                  <c:v>0.63859659999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6076926</c:v>
+                  <c:v>0.60769259999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.574468</c:v>
+                  <c:v>0.57446799999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5952382</c:v>
+                  <c:v>0.59523820000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000004</c:v>
+                  <c:v>0.60000039999999988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55625</c:v>
+                  <c:v>0.55625000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5333336</c:v>
+                  <c:v>0.53333359999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5454544</c:v>
+                  <c:v>0.54545440000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.364706</c:v>
+                  <c:v>0.36470600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5166668</c:v>
+                  <c:v>0.51666679999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.3714286</c:v>
@@ -349,28 +377,52 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143019136"/>
-        <c:axId val="2143024064"/>
+        <c:axId val="499761408"/>
+        <c:axId val="499761968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143019136"/>
+        <c:axId val="499761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0"/>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
                   <a:t>Number of People</a:t>
                 </a:r>
               </a:p>
@@ -378,46 +430,119 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" baseline="0"/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143024064"/>
+        <c:crossAx val="499761968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143024064"/>
+        <c:axId val="499761968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7"/>
-          <c:min val="0.3"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>LOOCV Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -425,30 +550,112 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" baseline="0"/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143019136"/>
+        <c:crossAx val="499761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -487,40 +694,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,40 +739,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.780433923000003</c:v>
+                  <c:v>0.78043392300000325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.462335488000011</c:v>
+                  <c:v>2.4623354880000115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.109494082999998</c:v>
+                  <c:v>1.1094940829999977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.634898145</c:v>
+                  <c:v>22.634898144999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.17230725700002</c:v>
+                  <c:v>14.172307257000025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.113211103</c:v>
+                  <c:v>5.1132111030000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.8984375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.55026474800001</c:v>
+                  <c:v>31.550264748000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134.2981611580003</c:v>
+                  <c:v>134.29816115800031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266.4360726649998</c:v>
+                  <c:v>266.43607266499976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>326.3891111120006</c:v>
+                  <c:v>326.38911111200059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>469.3888163279998</c:v>
+                  <c:v>469.38881632799985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143055008"/>
-        <c:axId val="2143057760"/>
+        <c:axId val="499764208"/>
+        <c:axId val="499764768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143055008"/>
+        <c:axId val="499764208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,12 +801,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143057760"/>
+        <c:crossAx val="499764768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143057760"/>
+        <c:axId val="499764768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143055008"/>
+        <c:crossAx val="499764208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -630,6 +837,562 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,13 +1751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1769,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -1030,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>67</v>
       </c>
@@ -1044,7 +1807,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>62</v>
       </c>
@@ -1072,7 +1835,7 @@
         <v>0.78043392300000325</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>57</v>
       </c>
@@ -1100,7 +1863,7 @@
         <v>2.4623354880000115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>52</v>
       </c>
@@ -1128,7 +1891,7 @@
         <v>1.1094940829999977</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>47</v>
       </c>
@@ -1156,7 +1919,7 @@
         <v>22.634898144999994</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42</v>
       </c>
@@ -1184,7 +1947,7 @@
         <v>14.172307257000025</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>37</v>
       </c>
@@ -1212,7 +1975,7 @@
         <v>5.1132111030000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -1240,7 +2003,7 @@
         <v>45.8984375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>27</v>
       </c>
@@ -1268,7 +2031,7 @@
         <v>31.550264748000007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>22</v>
       </c>
@@ -1296,7 +2059,7 @@
         <v>134.29816115800031</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -1324,7 +2087,7 @@
         <v>266.43607266499976</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1352,7 +2115,7 @@
         <v>326.38911111200059</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -1395,9 +2158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1409,7 +2174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
